--- a/01.doc/03.个人日报/个人日报_付瑞 .xlsx
+++ b/01.doc/03.个人日报/个人日报_付瑞 .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -19,23 +19,28 @@
     <sheet name="8-29" sheetId="8" r:id="rId5"/>
     <sheet name="8-30" sheetId="9" r:id="rId6"/>
     <sheet name="8-31" sheetId="10" r:id="rId7"/>
+    <sheet name="9-1" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
     <definedName name="里程碑" localSheetId="6">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="7">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
     <definedName name="模块" localSheetId="6">#REF!</definedName>
+    <definedName name="模块" localSheetId="7">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -539,6 +544,76 @@
   </si>
   <si>
     <t>加强练习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解网络编程，对整个编码环节大致规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对小组成员对不同方面的了解程度分配任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上创建新项目</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行版本控制和小组协作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解、学习网络编程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体规划编码环节，并分配编码任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看博客、搜资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与Qt的连接问题</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下并请教同学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1617,7 +1692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1730,9 +1805,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1764,9 +1836,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1942,6 +2011,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1951,6 +2032,84 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1994,122 +2153,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2120,12 +2173,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -15282,6 +15343,79 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8260080" y="76200"/>
+          <a:ext cx="1828800" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15662,7 +15796,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15692,7 +15826,7 @@
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
       <c r="A12" s="23"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
       <c r="A13" s="23"/>
@@ -15709,17 +15843,17 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" s="22" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="26"/>
@@ -15733,7 +15867,7 @@
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" s="22" customFormat="1" ht="18">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="25"/>
@@ -15746,7 +15880,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" s="22" customFormat="1" ht="18">
-      <c r="A18" s="48">
+      <c r="A18" s="46">
         <v>40142</v>
       </c>
       <c r="B18" s="25"/>
@@ -15913,7 +16047,7 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:10" s="22" customFormat="1" ht="19.2">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="25"/>
@@ -15924,10 +16058,10 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="50"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" s="22" customFormat="1" ht="19.2">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="25"/>
@@ -15938,7 +16072,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" s="22" customFormat="1">
       <c r="A35" s="27"/>
@@ -15950,7 +16084,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" s="22" customFormat="1">
       <c r="A36" s="25"/>
@@ -15975,55 +16109,55 @@
       <c r="A59" s="30"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="52"/>
+      <c r="A101" s="50"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="52"/>
+      <c r="A102" s="50"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="52"/>
+      <c r="A103" s="50"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="52"/>
+      <c r="A104" s="50"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="52"/>
+      <c r="A105" s="50"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="52"/>
+      <c r="A106" s="50"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="52"/>
+      <c r="A107" s="50"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="52"/>
+      <c r="A108" s="50"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="52"/>
+      <c r="A109" s="50"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="52"/>
+      <c r="A110" s="50"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="52"/>
+      <c r="A111" s="50"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="52"/>
+      <c r="A112" s="50"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="52"/>
+      <c r="A113" s="50"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="52"/>
+      <c r="A114" s="50"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="52"/>
+      <c r="A115" s="50"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="52"/>
+      <c r="A116" s="50"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="52"/>
+      <c r="A117" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16047,208 +16181,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="46.19921875" style="56" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="12.59765625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A4" s="59">
+    <row r="4" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="59">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="62" customFormat="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-    </row>
-    <row r="7" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:5" s="62" customFormat="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A10" s="59"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:5" s="62" customFormat="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A12" s="59"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:5" s="62" customFormat="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" spans="1:5" s="62" customFormat="1" ht="15.6">
-      <c r="A14" s="59"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:5" s="62" customFormat="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:5" s="62" customFormat="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="61"/>
-    </row>
-    <row r="17" spans="1:4" s="62" customFormat="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4" s="62" customFormat="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="61"/>
+    <row r="5" spans="1:5" s="60" customFormat="1">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="1:5" s="60" customFormat="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:5" s="60" customFormat="1">
+      <c r="A11" s="57"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A12" s="57"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:5" s="60" customFormat="1">
+      <c r="A13" s="57"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:5" s="60" customFormat="1" ht="15.6">
+      <c r="A14" s="57"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="1:5" s="60" customFormat="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="1:5" s="60" customFormat="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="1:4" s="60" customFormat="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="59"/>
+    </row>
+    <row r="18" spans="1:4" s="60" customFormat="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="59"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="61"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="59"/>
     </row>
     <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="59"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="59"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="59"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="68"/>
+      <c r="A95" s="66"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="68"/>
+      <c r="A96" s="66"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="68"/>
+      <c r="A97" s="66"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="68"/>
+      <c r="A98" s="66"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="68"/>
+      <c r="A99" s="66"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="68"/>
+      <c r="A100" s="66"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="68"/>
+      <c r="A101" s="66"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="68"/>
+      <c r="A102" s="66"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="68"/>
+      <c r="A103" s="66"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="68"/>
+      <c r="A104" s="66"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="68"/>
+      <c r="A105" s="66"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="68"/>
+      <c r="A106" s="66"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="68"/>
+      <c r="A107" s="66"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="68"/>
+      <c r="A108" s="66"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="68"/>
+      <c r="A109" s="66"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="68"/>
+      <c r="A110" s="66"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="68"/>
+      <c r="A111" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16266,327 +16400,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="97" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="97" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="97" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="97" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="97" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="97" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="97"/>
+    <col min="1" max="1" width="9.19921875" style="95" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="95" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="95" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="95" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="95" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="70" customFormat="1" ht="22.8">
-      <c r="A1" s="69"/>
-    </row>
-    <row r="2" spans="1:9" s="70" customFormat="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" s="68" customFormat="1" ht="22.8">
+      <c r="A1" s="67"/>
+    </row>
+    <row r="2" spans="1:9" s="68" customFormat="1" ht="25.5" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="73" customFormat="1" ht="22.8">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:9" s="71" customFormat="1" ht="22.8">
+      <c r="A3" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-    </row>
-    <row r="4" spans="1:9" s="70" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="45" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:9" s="68" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A5" s="74"/>
-    </row>
-    <row r="6" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A6" s="74"/>
-    </row>
-    <row r="7" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A7" s="74"/>
-    </row>
-    <row r="8" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A8" s="74"/>
-    </row>
-    <row r="9" spans="1:9" s="70" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="74"/>
-    </row>
-    <row r="10" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A10" s="74"/>
-    </row>
-    <row r="11" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A11" s="74"/>
-    </row>
-    <row r="12" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A12" s="74"/>
-    </row>
-    <row r="13" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A13" s="74"/>
-    </row>
-    <row r="14" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A14" s="74"/>
-    </row>
-    <row r="15" spans="1:9" s="70" customFormat="1" ht="18">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-    </row>
-    <row r="16" spans="1:9" s="77" customFormat="1" ht="45">
-      <c r="A16" s="104" t="s">
+    <row r="5" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A5" s="72"/>
+    </row>
+    <row r="6" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A6" s="72"/>
+    </row>
+    <row r="7" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A7" s="72"/>
+    </row>
+    <row r="8" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A8" s="72"/>
+    </row>
+    <row r="9" spans="1:9" s="68" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="72"/>
+    </row>
+    <row r="10" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A11" s="72"/>
+    </row>
+    <row r="12" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A12" s="72"/>
+    </row>
+    <row r="13" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A13" s="72"/>
+    </row>
+    <row r="14" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A14" s="72"/>
+    </row>
+    <row r="15" spans="1:9" s="68" customFormat="1" ht="18">
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:9" s="75" customFormat="1" ht="45">
+      <c r="A16" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" s="77" customFormat="1" ht="16.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18" spans="1:8" s="70" customFormat="1" ht="53.4">
-      <c r="A18" s="81" t="s">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+    </row>
+    <row r="17" spans="1:8" s="75" customFormat="1" ht="16.2">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" s="68" customFormat="1" ht="53.4">
+      <c r="A18" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-    </row>
-    <row r="19" spans="1:8" s="70" customFormat="1" ht="18">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-    </row>
-    <row r="20" spans="1:8" s="70" customFormat="1" ht="46.2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-    </row>
-    <row r="21" spans="1:8" s="70" customFormat="1" ht="18">
-      <c r="A21" s="48"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-    </row>
-    <row r="22" spans="1:8" s="70" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A22" s="83" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="1:8" s="68" customFormat="1" ht="18">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" s="68" customFormat="1" ht="46.2">
+      <c r="A20" s="80"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="1:8" s="68" customFormat="1" ht="18">
+      <c r="A21" s="46"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="1:8" s="68" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-    </row>
-    <row r="23" spans="1:8" s="70" customFormat="1" ht="18">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-    </row>
-    <row r="24" spans="1:8" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-    </row>
-    <row r="25" spans="1:8" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-    </row>
-    <row r="26" spans="1:8" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-    </row>
-    <row r="27" spans="1:8" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-    </row>
-    <row r="28" spans="1:8" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-    </row>
-    <row r="29" spans="1:8" s="87" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A29" s="85" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+    </row>
+    <row r="23" spans="1:8" s="68" customFormat="1" ht="18">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="1:8" s="85" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-    </row>
-    <row r="30" spans="1:8" s="87" customFormat="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-    </row>
-    <row r="31" spans="1:8" s="87" customFormat="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-    </row>
-    <row r="32" spans="1:8" s="87" customFormat="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-    </row>
-    <row r="33" spans="1:8" s="93" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="90" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+    </row>
+    <row r="30" spans="1:8" s="85" customFormat="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+    </row>
+    <row r="31" spans="1:8" s="85" customFormat="1">
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+    </row>
+    <row r="32" spans="1:8" s="85" customFormat="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+    </row>
+    <row r="33" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="90" t="s">
+      <c r="B33" s="89"/>
+      <c r="C33" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="90" t="s">
+      <c r="D33" s="89"/>
+      <c r="E33" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="92" t="s">
+      <c r="F33" s="89"/>
+      <c r="G33" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="91"/>
-    </row>
-    <row r="34" spans="1:8" s="93" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="90" t="s">
+      <c r="H33" s="89"/>
+    </row>
+    <row r="34" spans="1:8" s="91" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="90" t="s">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-    </row>
-    <row r="35" spans="1:8" s="70" customFormat="1" ht="18">
-      <c r="A35" s="75"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-    </row>
-    <row r="36" spans="1:8" s="70" customFormat="1" ht="19.2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-    </row>
-    <row r="37" spans="1:8" s="70" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="95"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-    </row>
-    <row r="38" spans="1:8" s="70" customFormat="1"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+    </row>
+    <row r="35" spans="1:8" s="68" customFormat="1" ht="18">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="1:8" s="68" customFormat="1" ht="19.2">
+      <c r="A36" s="92"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="1:8" s="68" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="93"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="1:8" s="68" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="96"/>
+      <c r="A55" s="94"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="98"/>
+      <c r="A56" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16607,7 +16741,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J17" sqref="B10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16626,17 +16760,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16653,25 +16787,25 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="154">
+      <c r="E3" s="101">
         <v>43340</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="102" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="7"/>
@@ -16693,46 +16827,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="112">
         <v>43340</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="118">
         <v>43340</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -16751,129 +16885,129 @@
       <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="34"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="34"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>3</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="34"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="34"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="43">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="148">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="44"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -16892,82 +17026,92 @@
       <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
+      <c r="D19" s="131"/>
+      <c r="E19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>1</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>2</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="41"/>
+      <c r="B27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -16976,22 +17120,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17011,7 +17145,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J17" sqref="B10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17030,17 +17164,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17057,25 +17191,25 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="154">
+      <c r="E3" s="101">
         <v>43341</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="102" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="7"/>
@@ -17097,46 +17231,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="112">
         <v>43341</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="118">
         <v>43341</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -17155,153 +17289,153 @@
       <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="146">
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="100">
         <v>2.5</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="101" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="99" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="146">
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="100">
         <v>2</v>
       </c>
-      <c r="G11" s="150" t="s">
+      <c r="G11" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="101" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="99" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>3</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="146">
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="100">
         <v>2</v>
       </c>
-      <c r="G12" s="150" t="s">
+      <c r="G12" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="101" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="121"/>
       <c r="H13" s="122"/>
       <c r="I13" s="123"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="121"/>
       <c r="H14" s="122"/>
       <c r="I14" s="123"/>
-      <c r="J14" s="34"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
       <c r="I15" s="123"/>
-      <c r="J15" s="34"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="121"/>
       <c r="H16" s="122"/>
       <c r="I16" s="123"/>
-      <c r="J16" s="34"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="43">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="148">
         <f>SUM(F10:F16)</f>
         <v>6.5</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="44"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -17320,81 +17454,505 @@
       <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
+      <c r="D19" s="131"/>
+      <c r="E19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>1</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="142" t="s">
+      <c r="D20" s="135"/>
+      <c r="E20" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>2</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="142" t="s">
+      <c r="D21" s="135"/>
+      <c r="E21" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="41"/>
+      <c r="B27" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="B10:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="101">
+        <v>43342</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+    </row>
+    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="112">
+        <v>43342</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+    </row>
+    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="118">
+        <v>43342</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="100">
+        <v>3</v>
+      </c>
+      <c r="G10" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="100">
+        <v>3</v>
+      </c>
+      <c r="G11" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="35">
+        <v>3</v>
+      </c>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="34">
+        <v>4</v>
+      </c>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="34">
+        <v>5</v>
+      </c>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="35">
+        <v>6</v>
+      </c>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="34">
+        <v>7</v>
+      </c>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="148">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="131"/>
+      <c r="E19" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
+    </row>
+    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="36">
+        <v>1</v>
+      </c>
+      <c r="C20" s="145" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="135"/>
+      <c r="E20" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+    </row>
+    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="37">
+        <v>2</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+    </row>
+    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="38">
+        <v>3</v>
+      </c>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="40"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17442,12 +18000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J17" sqref="B10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17466,17 +18024,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17493,25 +18051,25 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="154">
-        <v>43342</v>
+      <c r="E3" s="101">
+        <v>43343</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="102" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="7"/>
@@ -17533,46 +18091,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
+      <c r="C5" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="144">
-        <v>43342</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="C6" s="112">
+        <v>43343</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="145">
-        <v>43342</v>
-      </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="C7" s="118">
+        <v>43343</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -17591,145 +18149,153 @@
       <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="146">
+      <c r="C10" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="100">
+        <v>1</v>
+      </c>
+      <c r="G10" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="100">
+        <v>5</v>
+      </c>
+      <c r="G11" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="35">
         <v>3</v>
       </c>
-      <c r="G10" s="150" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="101" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="35">
+      <c r="C12" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="100">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="146">
-        <v>3</v>
-      </c>
-      <c r="G11" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="101" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="36">
-        <v>3</v>
-      </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="121"/>
+      <c r="G12" s="143" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="122"/>
       <c r="I12" s="123"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="99" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>4</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="121"/>
       <c r="H13" s="122"/>
       <c r="I13" s="123"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="121"/>
       <c r="H14" s="122"/>
       <c r="I14" s="123"/>
-      <c r="J14" s="34"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
       <c r="I15" s="123"/>
-      <c r="J15" s="34"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="121"/>
       <c r="H16" s="122"/>
       <c r="I16" s="123"/>
-      <c r="J16" s="34"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="43">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="148">
         <f>SUM(F10:F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -17748,110 +18314,118 @@
       <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
+      <c r="D19" s="131"/>
+      <c r="E19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>1</v>
       </c>
-      <c r="C20" s="151" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="C20" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="135"/>
+      <c r="E20" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>2</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="C21" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="135"/>
+      <c r="E21" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>3</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+      <c r="C22" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="133"/>
+      <c r="E22" s="147" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="41"/>
+      <c r="B27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17866,12 +18440,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17890,17 +18464,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17917,25 +18491,25 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="97" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="154">
-        <v>43343</v>
+      <c r="E3" s="101">
+        <v>43344</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="102" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="7"/>
@@ -17957,46 +18531,46 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
+      <c r="C5" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="144">
-        <v>43343</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="C6" s="112">
+        <v>43344</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="145">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="C7" s="118">
+        <v>43344</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="16" t="s">
@@ -18015,153 +18589,161 @@
       <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="143" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="146">
-        <v>1</v>
-      </c>
-      <c r="G10" s="150" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="101" t="s">
-        <v>56</v>
+      <c r="C10" s="142" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="100">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="99" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>2</v>
       </c>
-      <c r="C11" s="143" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="146">
+      <c r="C11" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="100">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="35">
+        <v>3</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="100">
+        <v>3</v>
+      </c>
+      <c r="G12" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="34">
+        <v>4</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="100">
+        <v>2</v>
+      </c>
+      <c r="G13" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="34">
         <v>5</v>
       </c>
-      <c r="G11" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="101" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="36">
-        <v>3</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="146">
-        <v>2</v>
-      </c>
-      <c r="G12" s="150" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="148"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="101" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="35">
-        <v>4</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="35">
-        <v>5</v>
-      </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="43">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="148">
         <f>SUM(F10:F16)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="44"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
       <c r="B18" s="16" t="s">
@@ -18180,85 +18762,73 @@
       <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="114" t="s">
+      <c r="D19" s="131"/>
+      <c r="E19" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>1</v>
       </c>
-      <c r="C20" s="151" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>2</v>
       </c>
-      <c r="C21" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>3</v>
       </c>
-      <c r="C22" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="153" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="41"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="41"/>
+      <c r="B27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/01.doc/03.个人日报/个人日报_付瑞 .xlsx
+++ b/01.doc/03.个人日报/个人日报_付瑞 .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\付瑞\2018小学期\Linux下的邮件系统\重启者小组\fr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Mail\01.doc\03.个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -20,27 +20,32 @@
     <sheet name="8-30" sheetId="9" r:id="rId6"/>
     <sheet name="8-31" sheetId="10" r:id="rId7"/>
     <sheet name="9-1" sheetId="11" r:id="rId8"/>
+    <sheet name="9-2" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="7">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
     <definedName name="里程碑" localSheetId="6">#REF!</definedName>
     <definedName name="里程碑" localSheetId="7">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="8">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
     <definedName name="模块" localSheetId="6">#REF!</definedName>
     <definedName name="模块" localSheetId="7">#REF!</definedName>
+    <definedName name="模块" localSheetId="8">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="7">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -614,6 +619,50 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成概要设计文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总概要设计的各个部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善、修改概要设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习、设计通信方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写自己的部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论，仍不是很明确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对通信的方式、实现还是比较混乱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多加讨论、学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1692,7 +1741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1710,14 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1832,10 +1873,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2000,9 +2037,6 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2019,8 +2053,16 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2032,6 +2074,88 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2083,74 +2207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2162,9 +2219,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,20 +2227,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -15488,6 +15534,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8260080" y="76200"/>
+          <a:ext cx="1828800" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -15781,383 +15900,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9" style="28"/>
-    <col min="3" max="3" width="8.3984375" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="7.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9" style="26"/>
+    <col min="3" max="3" width="8.3984375" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="22.2">
-      <c r="A1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="22.2">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:9" s="20" customFormat="1" ht="22.2">
+      <c r="A1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" s="20" customFormat="1" ht="22.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A12" s="23"/>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" s="22" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="103" t="s">
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A12" s="21"/>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" s="20" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A15" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-    </row>
-    <row r="16" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" s="22" customFormat="1" ht="18">
-      <c r="A17" s="45" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+    </row>
+    <row r="16" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" s="20" customFormat="1" ht="18">
+      <c r="A17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" s="22" customFormat="1" ht="18">
-      <c r="A18" s="46">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1" ht="18">
+      <c r="A18" s="43">
         <v>40142</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" s="22" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" s="22" customFormat="1" ht="17.399999999999999">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" s="22" customFormat="1" ht="19.2">
-      <c r="A33" s="47" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" s="20" customFormat="1" ht="19.2">
+      <c r="A33" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="1:10" s="22" customFormat="1" ht="19.2">
-      <c r="A34" s="49" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" s="20" customFormat="1" ht="19.2">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="48"/>
-    </row>
-    <row r="35" spans="1:10" s="22" customFormat="1">
-      <c r="A35" s="27"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" spans="1:10" s="22" customFormat="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:10" s="22" customFormat="1"/>
-    <row r="38" spans="1:10" s="22" customFormat="1"/>
-    <row r="39" spans="1:10" s="22" customFormat="1"/>
-    <row r="40" spans="1:10" s="22" customFormat="1"/>
-    <row r="41" spans="1:10" s="22" customFormat="1"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="1:10" s="20" customFormat="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="1:10" s="20" customFormat="1">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" s="20" customFormat="1"/>
+    <row r="38" spans="1:10" s="20" customFormat="1"/>
+    <row r="39" spans="1:10" s="20" customFormat="1"/>
+    <row r="40" spans="1:10" s="20" customFormat="1"/>
+    <row r="41" spans="1:10" s="20" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="29"/>
+      <c r="A58" s="27"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="30"/>
+      <c r="A59" s="28"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="50"/>
+      <c r="A101" s="47"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="50"/>
+      <c r="A102" s="47"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="50"/>
+      <c r="A103" s="47"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="50"/>
+      <c r="A104" s="47"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="50"/>
+      <c r="A105" s="47"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="50"/>
+      <c r="A106" s="47"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="50"/>
+      <c r="A107" s="47"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="50"/>
+      <c r="A108" s="47"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="50"/>
+      <c r="A109" s="47"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="50"/>
+      <c r="A110" s="47"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="50"/>
+      <c r="A111" s="47"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="50"/>
+      <c r="A112" s="47"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="50"/>
+      <c r="A113" s="47"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="50"/>
+      <c r="A114" s="47"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="50"/>
+      <c r="A115" s="47"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="50"/>
+      <c r="A116" s="47"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="50"/>
+      <c r="A117" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16181,208 +16300,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="46.19921875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="54"/>
+    <col min="1" max="1" width="12.59765625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A4" s="57">
+    <row r="4" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A4" s="54">
         <v>1</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="56">
         <v>40142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="60" customFormat="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-    </row>
-    <row r="8" spans="1:5" s="60" customFormat="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59"/>
-    </row>
-    <row r="9" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-    </row>
-    <row r="10" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A10" s="57"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-    </row>
-    <row r="11" spans="1:5" s="60" customFormat="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-    </row>
-    <row r="12" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A12" s="57"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-    </row>
-    <row r="13" spans="1:5" s="60" customFormat="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-    </row>
-    <row r="14" spans="1:5" s="60" customFormat="1" ht="15.6">
-      <c r="A14" s="57"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-    </row>
-    <row r="15" spans="1:5" s="60" customFormat="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="59"/>
-    </row>
-    <row r="16" spans="1:5" s="60" customFormat="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="59"/>
-    </row>
-    <row r="17" spans="1:4" s="60" customFormat="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59"/>
-    </row>
-    <row r="18" spans="1:4" s="60" customFormat="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="59"/>
+    <row r="5" spans="1:5" s="57" customFormat="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+    </row>
+    <row r="7" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:5" s="57" customFormat="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="1:5" s="57" customFormat="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+    </row>
+    <row r="13" spans="1:5" s="57" customFormat="1">
+      <c r="A13" s="54"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+    </row>
+    <row r="14" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A14" s="54"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:5" s="57" customFormat="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="16" spans="1:5" s="57" customFormat="1">
+      <c r="A16" s="54"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:4" s="57" customFormat="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+    </row>
+    <row r="18" spans="1:4" s="57" customFormat="1">
+      <c r="A18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="57"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="57"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="57"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="59"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="66"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16400,327 +16519,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="95" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="95" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="95" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="95" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="95" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="95" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="95"/>
+    <col min="1" max="1" width="9.19921875" style="92" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="92" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="92" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="92" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="68" customFormat="1" ht="22.8">
-      <c r="A1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" s="68" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:9" s="65" customFormat="1" ht="22.8">
+      <c r="A1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" s="65" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="71" customFormat="1" ht="22.8">
-      <c r="A3" s="69" t="s">
+    <row r="3" spans="1:9" s="68" customFormat="1" ht="22.8">
+      <c r="A3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="1:9" s="68" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="1:9" s="65" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A5" s="72"/>
-    </row>
-    <row r="6" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A6" s="72"/>
-    </row>
-    <row r="7" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" s="68" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A10" s="72"/>
-    </row>
-    <row r="11" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A14" s="72"/>
-    </row>
-    <row r="15" spans="1:9" s="68" customFormat="1" ht="18">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="1:9" s="75" customFormat="1" ht="45">
-      <c r="A16" s="105" t="s">
+    <row r="5" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="69"/>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A10" s="69"/>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A11" s="69"/>
+    </row>
+    <row r="12" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A12" s="69"/>
+    </row>
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A13" s="69"/>
+    </row>
+    <row r="14" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A14" s="69"/>
+    </row>
+    <row r="15" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:9" s="72" customFormat="1" ht="45">
+      <c r="A16" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-    </row>
-    <row r="17" spans="1:8" s="75" customFormat="1" ht="16.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-    </row>
-    <row r="18" spans="1:8" s="68" customFormat="1" ht="53.4">
-      <c r="A18" s="79" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+    </row>
+    <row r="17" spans="1:8" s="72" customFormat="1" ht="16.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" s="65" customFormat="1" ht="53.4">
+      <c r="A18" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" s="68" customFormat="1" ht="18">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:8" s="68" customFormat="1" ht="46.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="1:8" s="68" customFormat="1" ht="18">
-      <c r="A21" s="46"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="1:8" s="68" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+    </row>
+    <row r="19" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:8" s="65" customFormat="1" ht="46.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+    </row>
+    <row r="21" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A21" s="43"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+    </row>
+    <row r="22" spans="1:8" s="65" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-    </row>
-    <row r="23" spans="1:8" s="68" customFormat="1" ht="18">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="1:8" s="68" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="1:8" s="85" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A29" s="83" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+    </row>
+    <row r="26" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+    </row>
+    <row r="27" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+    </row>
+    <row r="29" spans="1:8" s="82" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-    </row>
-    <row r="30" spans="1:8" s="85" customFormat="1">
-      <c r="A30" s="86"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-    </row>
-    <row r="31" spans="1:8" s="85" customFormat="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-    </row>
-    <row r="32" spans="1:8" s="85" customFormat="1">
-      <c r="A32" s="86"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-    </row>
-    <row r="33" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="88" t="s">
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+    </row>
+    <row r="30" spans="1:8" s="82" customFormat="1">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+    </row>
+    <row r="31" spans="1:8" s="82" customFormat="1">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+    </row>
+    <row r="32" spans="1:8" s="82" customFormat="1">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+    </row>
+    <row r="33" spans="1:8" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="88" t="s">
+      <c r="B33" s="86"/>
+      <c r="C33" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="88" t="s">
+      <c r="D33" s="86"/>
+      <c r="E33" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90" t="s">
+      <c r="F33" s="86"/>
+      <c r="G33" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="89"/>
-    </row>
-    <row r="34" spans="1:8" s="91" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="88" t="s">
+      <c r="H33" s="86"/>
+    </row>
+    <row r="34" spans="1:8" s="88" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="88" t="s">
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-    </row>
-    <row r="35" spans="1:8" s="68" customFormat="1" ht="18">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="1:8" s="68" customFormat="1" ht="19.2">
-      <c r="A36" s="92"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-    </row>
-    <row r="37" spans="1:8" s="68" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="93"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-    </row>
-    <row r="38" spans="1:8" s="68" customFormat="1"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+    </row>
+    <row r="35" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="1:8" s="65" customFormat="1" ht="19.2">
+      <c r="A36" s="89"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="1:8" s="65" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="90"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+    </row>
+    <row r="38" spans="1:8" s="65" customFormat="1"/>
     <row r="55" spans="1:1">
-      <c r="A55" s="94"/>
+      <c r="A55" s="91"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="96"/>
+      <c r="A56" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16741,7 +16860,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="B10:J17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16760,17 +16879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16784,318 +16903,340 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="101">
+      <c r="E3" s="97">
         <v>43340</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-    </row>
-    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="134">
         <v>43340</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="140">
         <v>43340</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="32" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="34">
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="34">
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="35">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="34">
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="34">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="35">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="34">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="148">
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="16" t="s">
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="31" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="36">
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="37">
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="38">
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="40"/>
+      <c r="B27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -17104,28 +17245,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17145,7 +17264,7 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="B10:J17"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17164,17 +17283,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17188,347 +17307,771 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="101">
+      <c r="E3" s="97">
         <v>43341</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-    </row>
-    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
+      <c r="C6" s="134">
         <v>43341</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="140">
         <v>43341</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="32" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="34">
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="100">
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="96">
         <v>2.5</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="99" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="95" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="34">
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="100">
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="96">
         <v>2</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="99" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="35">
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="100">
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="96">
         <v>2</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="99" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="95" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="34">
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="34">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="35">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="34">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="148">
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
         <v>6.5</v>
       </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="16" t="s">
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="31" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="36">
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="144" t="s">
+      <c r="D20" s="112"/>
+      <c r="E20" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="37">
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="144" t="s">
+      <c r="D21" s="112"/>
+      <c r="E21" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="38">
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="40"/>
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43342</v>
+      </c>
+      <c r="F3" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>43342</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="140">
+        <v>43342</v>
+      </c>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="144" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="96">
+        <v>3</v>
+      </c>
+      <c r="G10" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="96">
+        <v>3</v>
+      </c>
+      <c r="G11" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="143" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -17576,12 +18119,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="B10:J17"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17600,17 +18143,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17624,335 +18167,787 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="101">
-        <v>43342</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="97">
+        <v>43343</v>
+      </c>
+      <c r="F3" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-    </row>
-    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="C5" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
-        <v>43342</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="134">
+        <v>43343</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
-        <v>43342</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="140">
+        <v>43343</v>
+      </c>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="32" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="34">
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="142" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="100">
+      <c r="C10" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="96">
+        <v>1</v>
+      </c>
+      <c r="G10" s="145" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="96">
+        <v>5</v>
+      </c>
+      <c r="G11" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="G10" s="143" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="99" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="34">
+      <c r="C12" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="96">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="100">
+      <c r="G12" s="145" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="112"/>
+      <c r="E21" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="G11" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="99" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="35">
+      <c r="C22" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="110"/>
+      <c r="E22" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43344</v>
+      </c>
+      <c r="F3" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="134">
+        <v>43344</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="34">
+      <c r="C7" s="140">
+        <v>43344</v>
+      </c>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="34">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="145" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="96">
+        <v>3</v>
+      </c>
+      <c r="G12" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="96">
+        <v>2</v>
+      </c>
+      <c r="G13" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="35">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="34">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="148">
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="31" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="36">
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="144" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="37">
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="38">
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="40"/>
+      <c r="B27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18000,12 +18995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="B10:J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18024,17 +19019,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18048,787 +19043,343 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="101">
-        <v>43343</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="97">
+        <v>43345</v>
+      </c>
+      <c r="F3" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-    </row>
-    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14" t="s">
+      <c r="C5" s="131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="112">
-        <v>43343</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="134">
+        <v>43345</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="118">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="140">
+        <v>43345</v>
+      </c>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="39" t="s">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="32" t="s">
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="34">
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="100">
+      <c r="C10" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="98">
         <v>1</v>
       </c>
-      <c r="G10" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="99" t="s">
+      <c r="G10" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="98">
+        <v>2</v>
+      </c>
+      <c r="G11" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="95" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="34">
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="98">
         <v>2</v>
       </c>
-      <c r="C11" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="100">
+      <c r="G12" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="G11" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="99" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="35">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="100">
+        <f>SUM(F10:F16)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C12" s="142" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="100">
-        <v>2</v>
-      </c>
-      <c r="G12" s="143" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="34">
-        <v>4</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="34">
-        <v>5</v>
-      </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="35">
-        <v>6</v>
-      </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="34">
-        <v>7</v>
-      </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="148">
-        <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="36">
-        <v>1</v>
-      </c>
-      <c r="C20" s="145" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="144" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="37">
-        <v>2</v>
-      </c>
-      <c r="C21" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="38">
-        <v>3</v>
-      </c>
-      <c r="C22" s="146" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="40"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="101">
-        <v>43344</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-    </row>
-    <row r="6" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="112">
-        <v>43344</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="2:10" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="118">
-        <v>43344</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-    </row>
-    <row r="8" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="34">
-        <v>1</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="100">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="34">
-        <v>2</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="100">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="99" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="35">
-        <v>3</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="100">
-        <v>3</v>
-      </c>
-      <c r="G12" s="143" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="99" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="34">
-        <v>4</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="100">
-        <v>2</v>
-      </c>
-      <c r="G13" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="34">
-        <v>5</v>
-      </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="35">
-        <v>6</v>
-      </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="34">
-        <v>7</v>
-      </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="2:10" s="20" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="148">
-        <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="2:10" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
-    </row>
-    <row r="20" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="36">
-        <v>1</v>
-      </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-    </row>
-    <row r="21" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="37">
-        <v>2</v>
-      </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-    </row>
-    <row r="22" spans="2:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="38">
-        <v>3</v>
-      </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="40"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="40"/>
+      <c r="B27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -18865,9 +19416,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/01.doc/03.个人日报/个人日报_付瑞 .xlsx
+++ b/01.doc/03.个人日报/个人日报_付瑞 .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="8-31" sheetId="10" r:id="rId7"/>
     <sheet name="9-1" sheetId="11" r:id="rId8"/>
     <sheet name="9-2" sheetId="12" r:id="rId9"/>
+    <sheet name="9-3" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
@@ -28,24 +29,28 @@
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="8">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="9">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
     <definedName name="里程碑" localSheetId="6">#REF!</definedName>
     <definedName name="里程碑" localSheetId="7">#REF!</definedName>
     <definedName name="里程碑" localSheetId="8">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="9">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
     <definedName name="模块" localSheetId="6">#REF!</definedName>
     <definedName name="模块" localSheetId="7">#REF!</definedName>
     <definedName name="模块" localSheetId="8">#REF!</definedName>
+    <definedName name="模块" localSheetId="9">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="8">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="9">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -663,6 +668,58 @@
   </si>
   <si>
     <t>多加讨论、学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改概要设计文档、需求跟踪矩阵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改概要设计文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对老师提出的建议进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求跟踪矩阵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定了我们邮件系统的服务器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>听嵌入式的讲座</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师上课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置自己的Windows服务器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据网上教程和同学指导完成配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置问题较多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多看博客、多问做过的同学</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1741,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2065,6 +2122,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2074,88 +2147,6 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2207,7 +2198,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2219,6 +2289,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2226,14 +2299,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -15607,6 +15672,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8260080" y="76200"/>
+          <a:ext cx="1828800" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -15962,17 +16100,17 @@
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="24"/>
@@ -16285,6 +16423,454 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43346</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>43346</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>43346</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="101">
+        <v>1</v>
+      </c>
+      <c r="G12" s="148" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="147" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="101">
+        <v>1</v>
+      </c>
+      <c r="G13" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="101">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="102">
+        <f>SUM(F10:F16)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16595,16 +17181,16 @@
       <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:9" s="72" customFormat="1" ht="45">
-      <c r="A16" s="103" t="s">
+      <c r="A16" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
     </row>
     <row r="17" spans="1:8" s="72" customFormat="1" ht="16.2">
       <c r="A17" s="73"/>
@@ -16794,15 +17380,15 @@
       <c r="A34" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="1:8" s="65" customFormat="1" ht="18">
       <c r="A35" s="70"/>
@@ -16879,17 +17465,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16903,28 +17489,28 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="97">
         <v>43340</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="103" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="5"/>
@@ -16946,46 +17532,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="114">
         <v>43340</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140">
+      <c r="C7" s="120">
         <v>43340</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -17004,19 +17590,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -17025,100 +17611,100 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="96"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="96"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="96"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="96"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
         <v>0</v>
@@ -17145,57 +17731,57 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -17215,12 +17801,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
@@ -17229,22 +17825,12 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17283,17 +17869,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17307,28 +17893,28 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="97">
         <v>43341</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="103" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="5"/>
@@ -17350,46 +17936,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="114">
         <v>43341</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140">
+      <c r="C7" s="120">
         <v>43341</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -17408,19 +17994,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -17429,19 +18015,19 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="96">
         <v>2.5</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="95" t="s">
         <v>56</v>
       </c>
@@ -17450,19 +18036,19 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="96">
         <v>2</v>
       </c>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="95" t="s">
         <v>60</v>
       </c>
@@ -17471,19 +18057,19 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="96">
         <v>2</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="G12" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="95" t="s">
         <v>61</v>
       </c>
@@ -17492,61 +18078,61 @@
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="96"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
         <v>6.5</v>
@@ -17573,65 +18159,489 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="143" t="s">
+      <c r="D20" s="140"/>
+      <c r="E20" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="143" t="s">
+      <c r="D21" s="140"/>
+      <c r="E21" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43342</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>43342</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>43342</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="96">
+        <v>3</v>
+      </c>
+      <c r="G10" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="96">
+        <v>3</v>
+      </c>
+      <c r="G11" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="150" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -17695,7 +18705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -17719,17 +18729,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17743,28 +18753,28 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43342</v>
-      </c>
-      <c r="F3" s="150" t="s">
+        <v>43343</v>
+      </c>
+      <c r="F3" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="103" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="5"/>
@@ -17786,46 +18796,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="C5" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="134">
-        <v>43342</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="C6" s="114">
+        <v>43343</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140">
-        <v>43342</v>
-      </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="120">
+        <v>43343</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -17844,19 +18854,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -17865,19 +18875,19 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
+      <c r="C10" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="96">
-        <v>3</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="95" t="s">
         <v>56</v>
       </c>
@@ -17886,98 +18896,106 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
+      <c r="C11" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="96">
-        <v>3</v>
-      </c>
-      <c r="G11" s="145" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="95" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="96">
+        <v>2</v>
+      </c>
+      <c r="G12" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="95" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
       <c r="F15" s="96"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
@@ -18001,61 +19019,505 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="143" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="C20" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="138"/>
+      <c r="E22" s="152" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43344</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="114">
+        <v>43344</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="120">
+        <v>43344</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="96">
+        <v>3</v>
+      </c>
+      <c r="G12" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="96">
+        <v>2</v>
+      </c>
+      <c r="G13" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -18119,12 +19581,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18143,17 +19605,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18167,28 +19629,28 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43343</v>
-      </c>
-      <c r="F3" s="150" t="s">
+        <v>43345</v>
+      </c>
+      <c r="F3" s="104" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="149" t="s">
+      <c r="I3" s="103" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="5"/>
@@ -18210,46 +19672,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="C5" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="134">
-        <v>43343</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="C6" s="114">
+        <v>43345</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="140">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="C7" s="120">
+        <v>43345</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -18268,19 +19730,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -18289,40 +19751,40 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="144" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="96">
+      <c r="C10" s="147" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="98">
         <v>1</v>
       </c>
-      <c r="G10" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="95" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="96">
-        <v>5</v>
-      </c>
-      <c r="G11" s="145" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="C11" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="98">
+        <v>2</v>
+      </c>
+      <c r="G11" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="95" t="s">
         <v>56</v>
       </c>
@@ -18331,85 +19793,85 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="144" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="96">
+      <c r="C12" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="98">
         <v>2</v>
       </c>
-      <c r="G12" s="145" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="95" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="31"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="99">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="100">
         <f>SUM(F10:F16)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17" s="123"/>
       <c r="H17" s="124"/>
@@ -18433,505 +19895,61 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
+      <c r="D19" s="136"/>
+      <c r="E19" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="146" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="143" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="C20" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="149" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43344</v>
-      </c>
-      <c r="F3" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="149" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="134">
-        <v>43344</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="140">
-        <v>43344</v>
-      </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="137" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="96">
-        <v>3</v>
-      </c>
-      <c r="G12" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="96">
-        <v>2</v>
-      </c>
-      <c r="G13" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="99">
-        <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -18984,438 +20002,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="149" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43345</v>
-      </c>
-      <c r="F3" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="149" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="134">
-        <v>43345</v>
-      </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="140">
-        <v>43345</v>
-      </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="137" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="144" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="98">
-        <v>1</v>
-      </c>
-      <c r="G10" s="145" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="144" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="98">
-        <v>2</v>
-      </c>
-      <c r="G11" s="145" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="144" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="98">
-        <v>2</v>
-      </c>
-      <c r="G12" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="95"/>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="126" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="100">
-        <f>SUM(F10:F16)</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="143" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>

--- a/01.doc/03.个人日报/个人日报_付瑞 .xlsx
+++ b/01.doc/03.个人日报/个人日报_付瑞 .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Mail\01.doc\03.个人日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="9-1" sheetId="11" r:id="rId8"/>
     <sheet name="9-2" sheetId="12" r:id="rId9"/>
     <sheet name="9-3" sheetId="13" r:id="rId10"/>
+    <sheet name="9-4" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
@@ -30,6 +31,7 @@
     <definedName name="父活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="9">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="10">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
@@ -37,6 +39,7 @@
     <definedName name="里程碑" localSheetId="7">#REF!</definedName>
     <definedName name="里程碑" localSheetId="8">#REF!</definedName>
     <definedName name="里程碑" localSheetId="9">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="10">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
@@ -44,6 +47,7 @@
     <definedName name="模块" localSheetId="7">#REF!</definedName>
     <definedName name="模块" localSheetId="8">#REF!</definedName>
     <definedName name="模块" localSheetId="9">#REF!</definedName>
+    <definedName name="模块" localSheetId="10">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
@@ -51,6 +55,7 @@
     <definedName name="子活动类型名" localSheetId="7">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="9">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="10">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="136">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -720,6 +725,45 @@
   </si>
   <si>
     <t>多看博客、多问做过的同学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成客户端和数据库、服务器的连接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习socket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看博客看不懂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决Ubuntu上不了网的问题</t>
+  </si>
+  <si>
+    <t>解决Ubuntu上不了网的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看博客仍未解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端与数据库的交互</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写用户部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花了3个小时搜索解决方案仍未解决</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2138,6 +2182,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2147,6 +2199,88 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2198,86 +2332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2287,9 +2342,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8783,6 +8835,79 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8260080" y="76200"/>
+          <a:ext cx="1828800" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16100,17 +16225,17 @@
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="24"/>
@@ -16432,8 +16557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16452,17 +16577,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16519,46 +16644,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="140">
         <v>43346</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="146">
         <v>43346</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -16577,19 +16702,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -16598,15 +16723,15 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="148" t="s">
+      <c r="G10" s="151" t="s">
         <v>115</v>
       </c>
       <c r="H10" s="127"/>
@@ -16619,15 +16744,15 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="101">
         <v>0.5</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="151" t="s">
         <v>115</v>
       </c>
       <c r="H11" s="127"/>
@@ -16640,15 +16765,15 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="150" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="101">
         <v>1</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="151" t="s">
         <v>117</v>
       </c>
       <c r="H12" s="127"/>
@@ -16661,15 +16786,15 @@
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="101">
         <v>1</v>
       </c>
-      <c r="G13" s="148" t="s">
+      <c r="G13" s="151" t="s">
         <v>120</v>
       </c>
       <c r="H13" s="127"/>
@@ -16682,15 +16807,15 @@
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="101">
         <v>2.5</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="151" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="127"/>
@@ -16703,9 +16828,9 @@
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="101"/>
       <c r="G15" s="126"/>
       <c r="H15" s="127"/>
@@ -16716,9 +16841,9 @@
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="101"/>
       <c r="G16" s="126"/>
       <c r="H16" s="127"/>
@@ -16726,19 +16851,19 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="102">
         <f>SUM(F10:F16)</f>
         <v>5.5</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -16758,61 +16883,493 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="140"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43347</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="140">
+        <v>43347</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="146">
+        <v>43347</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="150" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="106">
+        <v>2</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="106">
+        <v>1</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="106">
+        <v>3</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="105">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -17181,16 +17738,16 @@
       <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:9" s="72" customFormat="1" ht="45">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
     </row>
     <row r="17" spans="1:8" s="72" customFormat="1" ht="16.2">
       <c r="A17" s="73"/>
@@ -17380,15 +17937,15 @@
       <c r="A34" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
     </row>
     <row r="35" spans="1:8" s="65" customFormat="1" ht="18">
       <c r="A35" s="70"/>
@@ -17465,17 +18022,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17532,46 +18089,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="140">
         <v>43340</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="146">
         <v>43340</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -17590,19 +18147,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -17611,9 +18168,9 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="96"/>
       <c r="G10" s="126"/>
       <c r="H10" s="127"/>
@@ -17624,9 +18181,9 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="96"/>
       <c r="G11" s="126"/>
       <c r="H11" s="127"/>
@@ -17637,9 +18194,9 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="96"/>
       <c r="G12" s="126"/>
       <c r="H12" s="127"/>
@@ -17650,9 +18207,9 @@
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="96"/>
       <c r="G13" s="126"/>
       <c r="H13" s="127"/>
@@ -17663,9 +18220,9 @@
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="96"/>
       <c r="G14" s="126"/>
       <c r="H14" s="127"/>
@@ -17676,9 +18233,9 @@
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="96"/>
       <c r="G15" s="126"/>
       <c r="H15" s="127"/>
@@ -17689,9 +18246,9 @@
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="96"/>
       <c r="G16" s="126"/>
       <c r="H16" s="127"/>
@@ -17699,19 +18256,19 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -17731,57 +18288,57 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -17801,6 +18358,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C22:D22"/>
@@ -17809,28 +18388,6 @@
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -17869,17 +18426,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17936,46 +18493,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="140">
         <v>43341</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="146">
         <v>43341</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -17994,19 +18551,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -18015,11 +18572,11 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="96">
         <v>2.5</v>
       </c>
@@ -18036,15 +18593,15 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="96">
         <v>2</v>
       </c>
-      <c r="G11" s="148" t="s">
+      <c r="G11" s="151" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="127"/>
@@ -18057,15 +18614,15 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="96">
         <v>2</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="151" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="127"/>
@@ -18078,9 +18635,9 @@
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="96"/>
       <c r="G13" s="126"/>
       <c r="H13" s="127"/>
@@ -18091,9 +18648,9 @@
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="96"/>
       <c r="G14" s="126"/>
       <c r="H14" s="127"/>
@@ -18104,9 +18661,9 @@
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="96"/>
       <c r="G15" s="126"/>
       <c r="H15" s="127"/>
@@ -18117,9 +18674,9 @@
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="96"/>
       <c r="G16" s="126"/>
       <c r="H16" s="127"/>
@@ -18127,19 +18684,19 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
         <v>6.5</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -18159,65 +18716,489 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="140"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="140"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43342</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="140">
+        <v>43342</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="146">
+        <v>43342</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="96">
+        <v>3</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="96">
+        <v>3</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -18281,7 +19262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -18305,17 +19286,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18339,7 +19320,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43342</v>
+        <v>43343</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>12</v>
@@ -18372,46 +19353,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="C5" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114">
-        <v>43342</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="140">
+        <v>43343</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="120">
-        <v>43342</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="C7" s="146">
+        <v>43343</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -18430,19 +19411,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -18451,16 +19432,16 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
+      <c r="C10" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="96">
-        <v>3</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>73</v>
       </c>
       <c r="H10" s="127"/>
       <c r="I10" s="128"/>
@@ -18472,43 +19453,51 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
+      <c r="C11" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="96">
-        <v>3</v>
-      </c>
-      <c r="G11" s="148" t="s">
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>75</v>
       </c>
       <c r="H11" s="127"/>
       <c r="I11" s="128"/>
       <c r="J11" s="95" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="126"/>
+      <c r="C12" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="96">
+        <v>2</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="127"/>
       <c r="I12" s="128"/>
-      <c r="J12" s="31"/>
+      <c r="J12" s="95" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="96"/>
       <c r="G13" s="126"/>
       <c r="H13" s="127"/>
@@ -18519,9 +19508,9 @@
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="96"/>
       <c r="G14" s="126"/>
       <c r="H14" s="127"/>
@@ -18532,9 +19521,9 @@
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="96"/>
       <c r="G15" s="126"/>
       <c r="H15" s="127"/>
@@ -18545,9 +19534,9 @@
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="96"/>
       <c r="G16" s="126"/>
       <c r="H16" s="127"/>
@@ -18555,19 +19544,19 @@
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -18587,61 +19576,505 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="150" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="140"/>
+      <c r="C20" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="118"/>
       <c r="E20" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+        <v>80</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="C21" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="116"/>
+      <c r="E22" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43344</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="140">
+        <v>43344</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="146">
+        <v>43344</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="96">
+        <v>3</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="96">
+        <v>2</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -18705,12 +20138,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18729,17 +20162,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18763,7 +20196,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43343</v>
+        <v>43345</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>12</v>
@@ -18796,46 +20229,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="C5" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="114">
-        <v>43343</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="140">
+        <v>43345</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="120">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
+      <c r="C7" s="146">
+        <v>43345</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -18854,19 +20287,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="145"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -18875,37 +20308,37 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="96">
+      <c r="C10" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="98">
         <v>1</v>
       </c>
-      <c r="G10" s="148" t="s">
-        <v>73</v>
+      <c r="G10" s="151" t="s">
+        <v>106</v>
       </c>
       <c r="H10" s="127"/>
       <c r="I10" s="128"/>
       <c r="J10" s="95" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="96">
-        <v>5</v>
-      </c>
-      <c r="G11" s="148" t="s">
-        <v>75</v>
+      <c r="C11" s="150" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="98">
+        <v>2</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>108</v>
       </c>
       <c r="H11" s="127"/>
       <c r="I11" s="128"/>
@@ -18917,44 +20350,44 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="96">
+      <c r="C12" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="98">
         <v>2</v>
       </c>
-      <c r="G12" s="148" t="s">
-        <v>78</v>
+      <c r="G12" s="151" t="s">
+        <v>109</v>
       </c>
       <c r="H12" s="127"/>
       <c r="I12" s="128"/>
       <c r="J12" s="95" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="126"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="127"/>
       <c r="I13" s="128"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="96"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="126"/>
       <c r="H14" s="127"/>
       <c r="I14" s="128"/>
@@ -18964,10 +20397,10 @@
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="96"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="126"/>
       <c r="H15" s="127"/>
       <c r="I15" s="128"/>
@@ -18977,29 +20410,29 @@
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="96"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="126"/>
       <c r="H16" s="127"/>
       <c r="I16" s="128"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="99">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="100">
         <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -19019,505 +20452,61 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="150" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="140"/>
+      <c r="C20" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="118"/>
       <c r="E20" s="149" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
+        <v>112</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="139" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="151" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="152" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43344</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="114">
-        <v>43344</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="120">
-        <v>43344</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="117" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="147" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="96">
-        <v>3</v>
-      </c>
-      <c r="G12" s="148" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="96">
-        <v>2</v>
-      </c>
-      <c r="G13" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="99">
-        <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -19570,438 +20559,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43345</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="114">
-        <v>43345</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="120">
-        <v>43345</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="117" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="147" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="98">
-        <v>1</v>
-      </c>
-      <c r="G10" s="148" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="147" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="98">
-        <v>2</v>
-      </c>
-      <c r="G11" s="148" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="147" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="98">
-        <v>2</v>
-      </c>
-      <c r="G12" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="95"/>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="130" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="100">
-        <f>SUM(F10:F16)</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="141" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="150" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="149" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>

--- a/01.doc/03.个人日报/个人日报_付瑞 .xlsx
+++ b/01.doc/03.个人日报/个人日报_付瑞 .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="10"/>
+    <workbookView xWindow="120" yWindow="72" windowWidth="14952" windowHeight="7992" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="9-2" sheetId="12" r:id="rId9"/>
     <sheet name="9-3" sheetId="13" r:id="rId10"/>
     <sheet name="9-4" sheetId="14" r:id="rId11"/>
+    <sheet name="9-5" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="4">#REF!</definedName>
@@ -32,6 +33,7 @@
     <definedName name="父活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="9">#REF!</definedName>
     <definedName name="父活动类型名" localSheetId="10">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="11">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="4">#REF!</definedName>
     <definedName name="里程碑" localSheetId="5">#REF!</definedName>
@@ -40,6 +42,7 @@
     <definedName name="里程碑" localSheetId="8">#REF!</definedName>
     <definedName name="里程碑" localSheetId="9">#REF!</definedName>
     <definedName name="里程碑" localSheetId="10">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="11">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="4">#REF!</definedName>
     <definedName name="模块" localSheetId="5">#REF!</definedName>
@@ -48,6 +51,7 @@
     <definedName name="模块" localSheetId="8">#REF!</definedName>
     <definedName name="模块" localSheetId="9">#REF!</definedName>
     <definedName name="模块" localSheetId="10">#REF!</definedName>
+    <definedName name="模块" localSheetId="11">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="4">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="5">#REF!</definedName>
@@ -56,6 +60,7 @@
     <definedName name="子活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="9">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="10">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="11">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="139">
   <si>
     <t>姓名：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -764,6 +769,18 @@
   </si>
   <si>
     <t>花了3个小时搜索解决方案仍未解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库函数编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库函数编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写代码写代码写代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1842,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2190,6 +2207,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2199,88 +2224,6 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2332,7 +2275,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2342,6 +2364,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8841,6 +8866,79 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>525780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8260080" y="76200"/>
+          <a:ext cx="1828800" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16225,17 +16323,17 @@
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="24"/>
@@ -16577,17 +16675,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -16644,46 +16742,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6" s="118">
         <v>43346</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="124">
         <v>43346</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -16702,19 +16800,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -16723,19 +16821,19 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="101">
         <v>0.5</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="95" t="s">
         <v>60</v>
       </c>
@@ -16744,19 +16842,19 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="101">
         <v>0.5</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="95" t="s">
         <v>56</v>
       </c>
@@ -16765,19 +16863,19 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
       <c r="F12" s="101">
         <v>1</v>
       </c>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="95" t="s">
         <v>118</v>
       </c>
@@ -16786,19 +16884,19 @@
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="101">
         <v>1</v>
       </c>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="95" t="s">
         <v>121</v>
       </c>
@@ -16807,19 +16905,19 @@
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
       <c r="F14" s="101">
         <v>2.5</v>
       </c>
-      <c r="G14" s="151" t="s">
+      <c r="G14" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="95" t="s">
         <v>60</v>
       </c>
@@ -16828,42 +16926,42 @@
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="101"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="101"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="102">
         <f>SUM(F10:F16)</f>
         <v>5.5</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -16883,61 +16981,493 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="149" t="s">
+      <c r="D20" s="144"/>
+      <c r="E20" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43347</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118">
+        <v>43347</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="124">
+        <v>43347</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="106">
+        <v>2</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="106">
+        <v>1</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="106">
+        <v>3</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="95"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="105">
+        <f>SUM(F10:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -17001,12 +17531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17025,17 +17555,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -17059,7 +17589,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43347</v>
+        <v>43348</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>12</v>
@@ -17092,46 +17622,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="C5" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="140">
-        <v>43347</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="C6" s="118">
+        <v>43348</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="146">
-        <v>43347</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="C7" s="124">
+        <v>43348</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -17150,19 +17680,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -17171,131 +17701,115 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="106">
-        <v>2</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="C10" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="107">
+        <v>6</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="95" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="106">
-        <v>1</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="95" t="s">
-        <v>56</v>
-      </c>
+      <c r="C11" s="151"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="106">
-        <v>3</v>
-      </c>
-      <c r="G12" s="151" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="95" t="s">
-        <v>101</v>
-      </c>
+      <c r="C12" s="151"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="105">
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="108">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -17315,61 +17829,1462 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="152" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="46.19921875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.2">
+      <c r="A1" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+      <c r="A2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
+      <c r="A3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A4" s="54">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="56">
+        <v>40142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="57" customFormat="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+    </row>
+    <row r="7" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:5" s="57" customFormat="1">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A10" s="54"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="1:5" s="57" customFormat="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+    </row>
+    <row r="13" spans="1:5" s="57" customFormat="1">
+      <c r="A13" s="54"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+    </row>
+    <row r="14" spans="1:5" s="57" customFormat="1" ht="15.6">
+      <c r="A14" s="54"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:5" s="57" customFormat="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="16" spans="1:5" s="57" customFormat="1">
+      <c r="A16" s="54"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:4" s="57" customFormat="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+    </row>
+    <row r="18" spans="1:4" s="57" customFormat="1">
+      <c r="A18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6">
+      <c r="A19" s="54"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6">
+      <c r="A20" s="54"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6">
+      <c r="A21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="56"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="63"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="63"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="63"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="63"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="63"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="63"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="63"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="63"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="63"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="63"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="63"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="63"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="63"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="63"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="63"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="63"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="63"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" style="92" customWidth="1"/>
+    <col min="2" max="4" width="9.59765625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="92" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="92" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="92" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="65" customFormat="1" ht="22.8">
+      <c r="A1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" s="65" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="68" customFormat="1" ht="22.8">
+      <c r="A3" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="1:9" s="65" customFormat="1" ht="17.399999999999999">
+      <c r="A4" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" s="65" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A9" s="69"/>
+    </row>
+    <row r="10" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A10" s="69"/>
+    </row>
+    <row r="11" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A11" s="69"/>
+    </row>
+    <row r="12" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A12" s="69"/>
+    </row>
+    <row r="13" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A13" s="69"/>
+    </row>
+    <row r="14" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A14" s="69"/>
+    </row>
+    <row r="15" spans="1:9" s="65" customFormat="1" ht="18">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:9" s="72" customFormat="1" ht="45">
+      <c r="A16" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+    </row>
+    <row r="17" spans="1:8" s="72" customFormat="1" ht="16.2">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" s="65" customFormat="1" ht="53.4">
+      <c r="A18" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+    </row>
+    <row r="19" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:8" s="65" customFormat="1" ht="46.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+    </row>
+    <row r="21" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A21" s="43"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+    </row>
+    <row r="22" spans="1:8" s="65" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A22" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+    </row>
+    <row r="23" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+    </row>
+    <row r="26" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+    </row>
+    <row r="27" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+    </row>
+    <row r="29" spans="1:8" s="82" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A29" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+    </row>
+    <row r="30" spans="1:8" s="82" customFormat="1">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+    </row>
+    <row r="31" spans="1:8" s="82" customFormat="1">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+    </row>
+    <row r="32" spans="1:8" s="82" customFormat="1">
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+    </row>
+    <row r="33" spans="1:8" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="86"/>
+      <c r="C33" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="86"/>
+      <c r="E33" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="86"/>
+    </row>
+    <row r="34" spans="1:8" s="88" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A34" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+    </row>
+    <row r="35" spans="1:8" s="65" customFormat="1" ht="18">
+      <c r="A35" s="70"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="1:8" s="65" customFormat="1" ht="19.2">
+      <c r="A36" s="89"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="1:8" s="65" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="90"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+    </row>
+    <row r="38" spans="1:8" s="65" customFormat="1"/>
+    <row r="55" spans="1:1">
+      <c r="A55" s="91"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43340</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118">
+        <v>43340</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="124">
+        <v>43340</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43341</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118">
+        <v>43341</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="124">
+        <v>43341</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="96">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="96">
+        <v>2</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="96">
+        <v>2</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="144"/>
+      <c r="E21" s="153" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -17433,976 +19348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.59765625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="46.19921875" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="51" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.2">
-      <c r="A1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A4" s="54">
-        <v>1</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="56">
-        <v>40142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="57" customFormat="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="56"/>
-    </row>
-    <row r="6" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-    </row>
-    <row r="7" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-    </row>
-    <row r="8" spans="1:5" s="57" customFormat="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="56"/>
-    </row>
-    <row r="9" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-    </row>
-    <row r="10" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A10" s="54"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-    </row>
-    <row r="11" spans="1:5" s="57" customFormat="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="56"/>
-    </row>
-    <row r="12" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A12" s="54"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:5" s="57" customFormat="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="56"/>
-    </row>
-    <row r="14" spans="1:5" s="57" customFormat="1" ht="15.6">
-      <c r="A14" s="54"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:5" s="57" customFormat="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="56"/>
-    </row>
-    <row r="16" spans="1:5" s="57" customFormat="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="56"/>
-    </row>
-    <row r="17" spans="1:4" s="57" customFormat="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="56"/>
-    </row>
-    <row r="18" spans="1:4" s="57" customFormat="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6">
-      <c r="A19" s="54"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="56"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6">
-      <c r="A20" s="54"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="56"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6">
-      <c r="A21" s="54"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="63"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="63"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="63"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="63"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="63"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="63"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="63"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="63"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="63"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="63"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="63"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="63"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="63"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="63"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="63"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="63"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="63"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.19921875" style="92" customWidth="1"/>
-    <col min="2" max="4" width="9.59765625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="92" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="92" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="92" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="92"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="65" customFormat="1" ht="22.8">
-      <c r="A1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" s="65" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="68" customFormat="1" ht="22.8">
-      <c r="A3" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-    </row>
-    <row r="4" spans="1:9" s="65" customFormat="1" ht="17.399999999999999">
-      <c r="A4" s="40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A5" s="69"/>
-    </row>
-    <row r="6" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A6" s="69"/>
-    </row>
-    <row r="7" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A7" s="69"/>
-    </row>
-    <row r="8" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A8" s="69"/>
-    </row>
-    <row r="9" spans="1:9" s="65" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A9" s="69"/>
-    </row>
-    <row r="10" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A10" s="69"/>
-    </row>
-    <row r="11" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A11" s="69"/>
-    </row>
-    <row r="12" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A12" s="69"/>
-    </row>
-    <row r="13" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A13" s="69"/>
-    </row>
-    <row r="14" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A14" s="69"/>
-    </row>
-    <row r="15" spans="1:9" s="65" customFormat="1" ht="18">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-    </row>
-    <row r="16" spans="1:9" s="72" customFormat="1" ht="45">
-      <c r="A16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-    </row>
-    <row r="17" spans="1:8" s="72" customFormat="1" ht="16.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="18" spans="1:8" s="65" customFormat="1" ht="53.4">
-      <c r="A18" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-    </row>
-    <row r="19" spans="1:8" s="65" customFormat="1" ht="18">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-    </row>
-    <row r="20" spans="1:8" s="65" customFormat="1" ht="46.2">
-      <c r="A20" s="77"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-    </row>
-    <row r="21" spans="1:8" s="65" customFormat="1" ht="18">
-      <c r="A21" s="43"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-    </row>
-    <row r="22" spans="1:8" s="65" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A22" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-    </row>
-    <row r="23" spans="1:8" s="65" customFormat="1" ht="18">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-    </row>
-    <row r="24" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-    </row>
-    <row r="25" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-    </row>
-    <row r="26" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-    </row>
-    <row r="27" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-    </row>
-    <row r="28" spans="1:8" s="65" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-    </row>
-    <row r="29" spans="1:8" s="82" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A29" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-    </row>
-    <row r="30" spans="1:8" s="82" customFormat="1">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-    </row>
-    <row r="31" spans="1:8" s="82" customFormat="1">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-    </row>
-    <row r="32" spans="1:8" s="82" customFormat="1">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-    </row>
-    <row r="33" spans="1:8" s="88" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="86"/>
-    </row>
-    <row r="34" spans="1:8" s="88" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A34" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-    </row>
-    <row r="35" spans="1:8" s="65" customFormat="1" ht="18">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-    </row>
-    <row r="36" spans="1:8" s="65" customFormat="1" ht="19.2">
-      <c r="A36" s="89"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-    </row>
-    <row r="37" spans="1:8" s="65" customFormat="1" ht="18.600000000000001">
-      <c r="A37" s="90"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-    </row>
-    <row r="38" spans="1:8" s="65" customFormat="1"/>
-    <row r="55" spans="1:1">
-      <c r="A55" s="91"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="93"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="F34:H34"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43340</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="140">
-        <v>43340</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="146">
-        <v>43340</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="143" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="99">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -18426,17 +19372,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18460,7 +19406,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>12</v>
@@ -18469,10 +19415,10 @@
         <v>49</v>
       </c>
       <c r="H3" s="104" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I3" s="103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -18493,46 +19439,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="C5" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="140">
-        <v>43341</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="C6" s="118">
+        <v>43342</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="146">
-        <v>43341</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="C7" s="124">
+        <v>43342</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -18551,19 +19497,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -18572,19 +19518,19 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="96">
-        <v>2.5</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="95" t="s">
         <v>56</v>
       </c>
@@ -18593,110 +19539,102 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="96">
-        <v>2</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="95" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="150" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="96">
-        <v>2</v>
-      </c>
-      <c r="G12" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="95" t="s">
-        <v>61</v>
-      </c>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="96"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
-        <v>6.5</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+        <v>6</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -18716,65 +19654,61 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="C20" s="154" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="153" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -18838,7 +19772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
@@ -18862,17 +19796,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -18896,7 +19830,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43342</v>
+        <v>43343</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>12</v>
@@ -18929,46 +19863,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="C5" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="140">
-        <v>43342</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="C6" s="118">
+        <v>43343</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="146">
-        <v>43342</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="C7" s="124">
+        <v>43343</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -18987,19 +19921,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -19008,19 +19942,19 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="C10" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="96">
-        <v>3</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="95" t="s">
         <v>56</v>
       </c>
@@ -19029,102 +19963,110 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="96">
-        <v>3</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="95" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="96">
+        <v>2</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="95" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="96"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
       <c r="F17" s="99">
         <f>SUM(F10:F16)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -19144,61 +20086,505 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="152" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="C20" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="153" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
+      <c r="C21" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="144"/>
+      <c r="E21" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="C22" s="155" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="142"/>
+      <c r="E22" s="156" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="97">
+        <v>43344</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+    </row>
+    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="118">
+        <v>43344</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="124">
+        <v>43344</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
+    </row>
+    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="96">
+        <v>3</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="96">
+        <v>2</v>
+      </c>
+      <c r="G13" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="33">
+        <v>6</v>
+      </c>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32">
+        <v>7</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="99">
+        <f>SUM(F10:F16)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+    </row>
+    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="35">
+        <v>2</v>
+      </c>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+    </row>
+    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="36">
+        <v>3</v>
+      </c>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -19262,12 +20648,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19286,17 +20672,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="2"/>
@@ -19320,7 +20706,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="97">
-        <v>43343</v>
+        <v>43345</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>12</v>
@@ -19353,46 +20739,46 @@
       <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
+      <c r="C5" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
     </row>
     <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="140">
-        <v>43343</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="C6" s="118">
+        <v>43345</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="146">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
+      <c r="C7" s="124">
+        <v>43345</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="126"/>
     </row>
     <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="14" t="s">
@@ -19411,19 +20797,19 @@
       <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="30" t="s">
         <v>9</v>
       </c>
@@ -19432,40 +20818,40 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="150" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="96">
+      <c r="C10" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="98">
         <v>1</v>
       </c>
-      <c r="G10" s="151" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="152" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="95" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="96">
-        <v>5</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="C11" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="98">
+        <v>2</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="131"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="95" t="s">
         <v>56</v>
       </c>
@@ -19474,89 +20860,89 @@
       <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="150" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="96">
+      <c r="C12" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="98">
         <v>2</v>
       </c>
-      <c r="G12" s="151" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="95" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="31"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="132"/>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="33">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="32">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="99">
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="100">
         <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
@@ -19576,505 +20962,61 @@
       <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="34">
         <v>1</v>
       </c>
-      <c r="C20" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="149" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
+      <c r="C20" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="36">
         <v>3</v>
       </c>
-      <c r="C22" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43344</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="140">
-        <v>43344</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="146">
-        <v>43344</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="143" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="150" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="96">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="150" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="96">
-        <v>3</v>
-      </c>
-      <c r="G12" s="151" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="95" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="96">
-        <v>2</v>
-      </c>
-      <c r="G13" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="99">
-        <f>SUM(F10:F16)</f>
-        <v>8</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="38" t="s">
@@ -20127,438 +21069,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="2:10" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="97">
-        <v>43345</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="139"/>
-    </row>
-    <row r="6" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="140">
-        <v>43345</v>
-      </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="146">
-        <v>43345</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="148"/>
-    </row>
-    <row r="8" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="143" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="98">
-        <v>1</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="32">
-        <v>2</v>
-      </c>
-      <c r="C11" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="98">
-        <v>2</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="33">
-        <v>3</v>
-      </c>
-      <c r="C12" s="150" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="98">
-        <v>2</v>
-      </c>
-      <c r="G12" s="151" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="32">
-        <v>4</v>
-      </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="95"/>
-    </row>
-    <row r="14" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="32">
-        <v>5</v>
-      </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="33">
-        <v>6</v>
-      </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="32">
-        <v>7</v>
-      </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="100">
-        <f>SUM(F10:F16)</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:10" s="6" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
-    </row>
-    <row r="20" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="34">
-        <v>1</v>
-      </c>
-      <c r="C20" s="152" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="149" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-    </row>
-    <row r="21" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="35">
-        <v>2</v>
-      </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-    </row>
-    <row r="22" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B22" s="36">
-        <v>3</v>
-      </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4"/>
